--- a/Code/Results/Cases/Case_8_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.880218271994863</v>
+        <v>1.824488358111296</v>
       </c>
       <c r="C2">
-        <v>0.5283329671064791</v>
+        <v>0.5722794384939789</v>
       </c>
       <c r="D2">
-        <v>0.1273528114503648</v>
+        <v>0.1362862429005389</v>
       </c>
       <c r="E2">
-        <v>0.1008639709644754</v>
+        <v>0.1052463659688243</v>
       </c>
       <c r="F2">
-        <v>0.8132974224757206</v>
+        <v>0.7650959853245425</v>
       </c>
       <c r="G2">
-        <v>0.0008040310600715882</v>
+        <v>0.001627573619416789</v>
       </c>
       <c r="H2">
-        <v>0.0001112623765016085</v>
+        <v>1.488040685959646E-05</v>
       </c>
       <c r="I2">
-        <v>0.0007140252659842972</v>
+        <v>0.001287476647052088</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2991930156996752</v>
+        <v>0.2651281313437082</v>
       </c>
       <c r="L2">
-        <v>0.1109267375919316</v>
+        <v>0.148969332019103</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06177553697968285</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1135678354928054</v>
       </c>
       <c r="O2">
-        <v>0.5919085422130053</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8283588078550537</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.889433770026358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5938262207325451</v>
+      </c>
+      <c r="R2">
+        <v>0.8242551900209776</v>
+      </c>
+      <c r="S2">
+        <v>1.734654721933993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.637453467951048</v>
+        <v>1.595248091253666</v>
       </c>
       <c r="C3">
-        <v>0.4616440999296572</v>
+        <v>0.4970753408680935</v>
       </c>
       <c r="D3">
-        <v>0.1159343461744839</v>
+        <v>0.1247550080933095</v>
       </c>
       <c r="E3">
-        <v>0.09313346821717872</v>
+        <v>0.09796793220935385</v>
       </c>
       <c r="F3">
-        <v>0.7661869184393169</v>
+        <v>0.7205084409459417</v>
       </c>
       <c r="G3">
-        <v>0.0008071314786032288</v>
+        <v>0.002978382191796053</v>
       </c>
       <c r="H3">
-        <v>0.0006005232157830775</v>
+        <v>0.0002694380967986909</v>
       </c>
       <c r="I3">
-        <v>0.0004330733528683517</v>
+        <v>0.0008027919027870922</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2973109860094745</v>
+        <v>0.264213794055923</v>
       </c>
       <c r="L3">
-        <v>0.1032786718163372</v>
+        <v>0.1530610740636007</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05822757174587245</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1067099073341851</v>
       </c>
       <c r="O3">
-        <v>0.5174392811426216</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8410590836079663</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.791815647393747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.519014348663525</v>
+      </c>
+      <c r="R3">
+        <v>0.8285908542268885</v>
+      </c>
+      <c r="S3">
+        <v>1.642785359494326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.487772899724064</v>
+        <v>1.453547329228911</v>
       </c>
       <c r="C4">
-        <v>0.4209427767009686</v>
+        <v>0.4512585820111497</v>
       </c>
       <c r="D4">
-        <v>0.1089638737116232</v>
+        <v>0.1177470157633635</v>
       </c>
       <c r="E4">
-        <v>0.08837955120292307</v>
+        <v>0.09349956009969773</v>
       </c>
       <c r="F4">
-        <v>0.7377881567810221</v>
+        <v>0.6933921725968304</v>
       </c>
       <c r="G4">
-        <v>0.0008091049942461337</v>
+        <v>0.004048206855202879</v>
       </c>
       <c r="H4">
-        <v>0.001115124885389562</v>
+        <v>0.0005962266495538326</v>
       </c>
       <c r="I4">
-        <v>0.0004401540780443192</v>
+        <v>0.0006320582565924049</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2963959531327021</v>
+        <v>0.2637498903040125</v>
       </c>
       <c r="L4">
-        <v>0.09854432407426472</v>
+        <v>0.1556416617064649</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05656005577184153</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1024589107705687</v>
       </c>
       <c r="O4">
-        <v>0.4717066166765562</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8495358924084968</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.73337421604495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4730369989376868</v>
+      </c>
+      <c r="R4">
+        <v>0.8319383337671837</v>
+      </c>
+      <c r="S4">
+        <v>1.586972208321271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.425606366415082</v>
+        <v>1.39457163021541</v>
       </c>
       <c r="C5">
-        <v>0.4050697932906928</v>
+        <v>0.4333527755620707</v>
       </c>
       <c r="D5">
-        <v>0.106201203419019</v>
+        <v>0.1149794254039449</v>
       </c>
       <c r="E5">
-        <v>0.08645001654855022</v>
+        <v>0.09168936440851638</v>
       </c>
       <c r="F5">
-        <v>0.7258337244131567</v>
+        <v>0.6819051146325705</v>
       </c>
       <c r="G5">
-        <v>0.0008099317154809159</v>
+        <v>0.004544904640416209</v>
       </c>
       <c r="H5">
-        <v>0.001377215568410972</v>
+        <v>0.0007709711185222012</v>
       </c>
       <c r="I5">
-        <v>0.0005518851262795721</v>
+        <v>0.0006692976983888599</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2957614666111539</v>
+        <v>0.2632836921687698</v>
       </c>
       <c r="L5">
-        <v>0.09658663410381862</v>
+        <v>0.15655628433354</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0559346273215926</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1006987134813784</v>
       </c>
       <c r="O5">
-        <v>0.4530823952183738</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8534080598659699</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.708368053256009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4543053704221691</v>
+      </c>
+      <c r="R5">
+        <v>0.8337498590812515</v>
+      </c>
+      <c r="S5">
+        <v>1.562858278647781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.414037195019972</v>
+        <v>1.383548741240702</v>
       </c>
       <c r="C6">
-        <v>0.4032436271869244</v>
+        <v>0.4312186958585187</v>
       </c>
       <c r="D6">
-        <v>0.1058270583047545</v>
+        <v>0.1146077569051513</v>
       </c>
       <c r="E6">
-        <v>0.08614215132687519</v>
+        <v>0.09140240624239482</v>
       </c>
       <c r="F6">
-        <v>0.7232365750065313</v>
+        <v>0.6793934097855399</v>
       </c>
       <c r="G6">
-        <v>0.0008100758254976933</v>
+        <v>0.004634525404382278</v>
       </c>
       <c r="H6">
-        <v>0.001425111857251804</v>
+        <v>0.0008032914688366199</v>
       </c>
       <c r="I6">
-        <v>0.0006611130541251953</v>
+        <v>0.0007797848207085067</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2952692478159165</v>
+        <v>0.2628412823098785</v>
       </c>
       <c r="L6">
-        <v>0.09623911972308008</v>
+        <v>0.1565216749510938</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05574812644672811</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1003848487436052</v>
       </c>
       <c r="O6">
-        <v>0.4500108508589875</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8543711649976728</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.702346948735766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4512155354861846</v>
+      </c>
+      <c r="R6">
+        <v>0.8344047111774842</v>
+      </c>
+      <c r="S6">
+        <v>1.557021925245238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.483545566822102</v>
+        <v>1.445921811553177</v>
       </c>
       <c r="C7">
-        <v>0.422935499462767</v>
+        <v>0.4507797151233319</v>
       </c>
       <c r="D7">
-        <v>0.1091565089502637</v>
+        <v>0.1185101115527942</v>
       </c>
       <c r="E7">
-        <v>0.08838849820397598</v>
+        <v>0.09366053666296636</v>
       </c>
       <c r="F7">
-        <v>0.735934033347462</v>
+        <v>0.6882233430756415</v>
       </c>
       <c r="G7">
-        <v>0.0008091314987418052</v>
+        <v>0.004327699769199667</v>
       </c>
       <c r="H7">
-        <v>0.001121618834672322</v>
+        <v>0.0006052762908299592</v>
       </c>
       <c r="I7">
-        <v>0.0006667909700146524</v>
+        <v>0.0008925049295891441</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2953215450769235</v>
+        <v>0.2615960658178942</v>
       </c>
       <c r="L7">
-        <v>0.09845870627804487</v>
+        <v>0.1545822449339944</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05599353632151072</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1023416951711269</v>
       </c>
       <c r="O7">
-        <v>0.4715137010141532</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8504490746832118</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.727872118249167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4719601228641395</v>
+      </c>
+      <c r="R7">
+        <v>0.8341140095632156</v>
+      </c>
+      <c r="S7">
+        <v>1.571299652220887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.792106347378791</v>
+        <v>1.72945820083828</v>
       </c>
       <c r="C8">
-        <v>0.5082283240014078</v>
+        <v>0.5408305699324387</v>
       </c>
       <c r="D8">
-        <v>0.1237128317320852</v>
+        <v>0.1345064326827412</v>
       </c>
       <c r="E8">
-        <v>0.09824684075665502</v>
+        <v>0.1032875875486887</v>
       </c>
       <c r="F8">
-        <v>0.794698258322498</v>
+        <v>0.7363712109886364</v>
       </c>
       <c r="G8">
-        <v>0.0008051048990656977</v>
+        <v>0.003622093603258492</v>
       </c>
       <c r="H8">
-        <v>0.0002357589286163808</v>
+        <v>7.203715099501906E-05</v>
       </c>
       <c r="I8">
-        <v>0.0008465544027993488</v>
+        <v>0.00139217826786453</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2970867583907975</v>
+        <v>0.2597452258044832</v>
       </c>
       <c r="L8">
-        <v>0.1082195436078806</v>
+        <v>0.1480664385583417</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05891510940984901</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1110220886692552</v>
       </c>
       <c r="O8">
-        <v>0.5663072322654159</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8337983044400801</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.848612975184864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5651494084963034</v>
+      </c>
+      <c r="R8">
+        <v>0.8312384437024392</v>
+      </c>
+      <c r="S8">
+        <v>1.662130354012021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.398621676155699</v>
+        <v>2.296696798163339</v>
       </c>
       <c r="C9">
-        <v>0.6737606804354357</v>
+        <v>0.7255008679697994</v>
       </c>
       <c r="D9">
-        <v>0.1522098538732308</v>
+        <v>0.1640013604951349</v>
       </c>
       <c r="E9">
-        <v>0.1174939900498835</v>
+        <v>0.1215893731987236</v>
       </c>
       <c r="F9">
-        <v>0.9175309228865416</v>
+        <v>0.8481997982724181</v>
       </c>
       <c r="G9">
-        <v>0.0007977274131373738</v>
+        <v>0.001840926955719802</v>
       </c>
       <c r="H9">
-        <v>0.0003174373970664668</v>
+        <v>0.0004515265756603881</v>
       </c>
       <c r="I9">
-        <v>0.002401350503031807</v>
+        <v>0.003060795036891051</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3044797070965934</v>
+        <v>0.262858819958911</v>
       </c>
       <c r="L9">
-        <v>0.1272046284754609</v>
+        <v>0.1387063514347169</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0703408585034353</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.127985932671443</v>
       </c>
       <c r="O9">
-        <v>0.7521912087418414</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8051095295568089</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.10756515050565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7507636849314352</v>
+      </c>
+      <c r="R9">
+        <v>0.8250045828351418</v>
+      </c>
+      <c r="S9">
+        <v>1.891811329518362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.834381261522708</v>
+        <v>2.681721070701258</v>
       </c>
       <c r="C10">
-        <v>0.7943535161823831</v>
+        <v>0.8443279157241932</v>
       </c>
       <c r="D10">
-        <v>0.1694474505438137</v>
+        <v>0.1853336889104469</v>
       </c>
       <c r="E10">
-        <v>0.1265823307603995</v>
+        <v>0.1308297152989404</v>
       </c>
       <c r="F10">
-        <v>0.9968986752945455</v>
+        <v>0.8996920847752534</v>
       </c>
       <c r="G10">
-        <v>0.000792728263343985</v>
+        <v>0.009051204389109557</v>
       </c>
       <c r="H10">
-        <v>0.001738152157950257</v>
+        <v>0.001784546633999629</v>
       </c>
       <c r="I10">
-        <v>0.004711009143279377</v>
+        <v>0.005079716558059388</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3075743639179471</v>
+        <v>0.256462689772782</v>
       </c>
       <c r="L10">
-        <v>0.1347147207002024</v>
+        <v>0.1288866189842643</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07749717995607242</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1338851211619385</v>
       </c>
       <c r="O10">
-        <v>0.8752638149453986</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.792654192596892</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.27865423540635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8680230327586784</v>
+      </c>
+      <c r="R10">
+        <v>0.8384183346483312</v>
+      </c>
+      <c r="S10">
+        <v>1.980236790954592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.97701090780123</v>
+        <v>2.774853905338716</v>
       </c>
       <c r="C11">
-        <v>0.8183844500998418</v>
+        <v>0.8343348533508106</v>
       </c>
       <c r="D11">
-        <v>0.1437488409857366</v>
+        <v>0.1645970865234858</v>
       </c>
       <c r="E11">
-        <v>0.09215891012521382</v>
+        <v>0.09666530076352942</v>
       </c>
       <c r="F11">
-        <v>0.9169495760758508</v>
+        <v>0.7868310260033553</v>
       </c>
       <c r="G11">
-        <v>0.00079133394676634</v>
+        <v>0.04282858150570945</v>
       </c>
       <c r="H11">
-        <v>0.02026547625396447</v>
+        <v>0.020189014095358</v>
       </c>
       <c r="I11">
-        <v>0.005950860796168911</v>
+        <v>0.00614558105793428</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2803464419892627</v>
+        <v>0.2215547888160145</v>
       </c>
       <c r="L11">
-        <v>0.0948491643327678</v>
+        <v>0.1137891619549549</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.0675129114527131</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09373305816809463</v>
       </c>
       <c r="O11">
-        <v>0.8132413041124735</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8317772853447423</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2.127262905755799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7950612914686985</v>
+      </c>
+      <c r="R11">
+        <v>0.9123660245718526</v>
+      </c>
+      <c r="S11">
+        <v>1.725884854631261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.009989594292676</v>
+        <v>2.789930489724213</v>
       </c>
       <c r="C12">
-        <v>0.8090496004117824</v>
+        <v>0.8065237124095859</v>
       </c>
       <c r="D12">
-        <v>0.1203067251404946</v>
+        <v>0.1416441703469218</v>
       </c>
       <c r="E12">
-        <v>0.06893524058755851</v>
+        <v>0.07260473075818297</v>
       </c>
       <c r="F12">
-        <v>0.8373669525844321</v>
+        <v>0.6994066931117047</v>
       </c>
       <c r="G12">
-        <v>0.0007911102888395432</v>
+        <v>0.06715712004754693</v>
       </c>
       <c r="H12">
-        <v>0.05873937993521139</v>
+        <v>0.05863534630807976</v>
       </c>
       <c r="I12">
-        <v>0.006089559718087223</v>
+        <v>0.006197448100329517</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.25900506568032</v>
+        <v>0.200184143684389</v>
       </c>
       <c r="L12">
-        <v>0.07544419442391614</v>
+        <v>0.1057211487763965</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05993499643453148</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07446880946934353</v>
       </c>
       <c r="O12">
-        <v>0.737241711333553</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8706002674275766</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.973400854676441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7149950438130404</v>
+      </c>
+      <c r="R12">
+        <v>0.9708824261834934</v>
+      </c>
+      <c r="S12">
+        <v>1.544330488355655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.95479684882622</v>
+        <v>2.750029733537815</v>
       </c>
       <c r="C13">
-        <v>0.7770696895497053</v>
+        <v>0.7729995185146947</v>
       </c>
       <c r="D13">
-        <v>0.09771363696670221</v>
+        <v>0.1156004681829046</v>
       </c>
       <c r="E13">
-        <v>0.05302963167458152</v>
+        <v>0.05528571544011118</v>
       </c>
       <c r="F13">
-        <v>0.7509685414319094</v>
+        <v>0.6283506377602777</v>
       </c>
       <c r="G13">
-        <v>0.0007917947844881022</v>
+        <v>0.06123754365499323</v>
       </c>
       <c r="H13">
-        <v>0.1141463241009717</v>
+        <v>0.114084551463435</v>
       </c>
       <c r="I13">
-        <v>0.005683781092049145</v>
+        <v>0.005877516922517145</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2392288570922183</v>
+        <v>0.1873179978855823</v>
       </c>
       <c r="L13">
-        <v>0.07035131746655487</v>
+        <v>0.1016912878445364</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05401220343940771</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06987993229927891</v>
       </c>
       <c r="O13">
-        <v>0.64676180494466</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.911887941801595</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.800611363513838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6269017107267487</v>
+      </c>
+      <c r="R13">
+        <v>1.012727395865298</v>
+      </c>
+      <c r="S13">
+        <v>1.41460326759676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.875343782138486</v>
+        <v>2.695734550575139</v>
       </c>
       <c r="C14">
-        <v>0.7452616362589595</v>
+        <v>0.7471122692826953</v>
       </c>
       <c r="D14">
-        <v>0.08277084934454848</v>
+        <v>0.09705996753892521</v>
       </c>
       <c r="E14">
-        <v>0.04629202203558913</v>
+        <v>0.047634278672676</v>
       </c>
       <c r="F14">
-        <v>0.6878439744770617</v>
+        <v>0.584450627508069</v>
       </c>
       <c r="G14">
-        <v>0.0007926851027380511</v>
+        <v>0.04454048592541682</v>
       </c>
       <c r="H14">
-        <v>0.1632185077132817</v>
+        <v>0.1632044151039906</v>
       </c>
       <c r="I14">
-        <v>0.005247779512019157</v>
+        <v>0.005581612242749223</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2260437485239208</v>
+        <v>0.1814030077517437</v>
       </c>
       <c r="L14">
-        <v>0.07525008017826984</v>
+        <v>0.1002964506211406</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05045354456567352</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07528659498837698</v>
       </c>
       <c r="O14">
-        <v>0.5778762528483838</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9424762510550977</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.671225818438188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5620603727887783</v>
+      </c>
+      <c r="R14">
+        <v>1.034032340197811</v>
+      </c>
+      <c r="S14">
+        <v>1.342184441609646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.835992292809465</v>
+        <v>2.66875722457479</v>
       </c>
       <c r="C15">
-        <v>0.7336722836665217</v>
+        <v>0.7398857469538029</v>
       </c>
       <c r="D15">
-        <v>0.07910812296706382</v>
+        <v>0.09206156374872876</v>
       </c>
       <c r="E15">
-        <v>0.04519964155802203</v>
+        <v>0.04637959431954508</v>
       </c>
       <c r="F15">
-        <v>0.670354841548999</v>
+        <v>0.5752443369130447</v>
       </c>
       <c r="G15">
-        <v>0.0007931111328762785</v>
+        <v>0.03610892409619737</v>
       </c>
       <c r="H15">
-        <v>0.1756136076579082</v>
+        <v>0.1756194722160984</v>
       </c>
       <c r="I15">
-        <v>0.005136018144686005</v>
+        <v>0.005555171126301772</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2227880897519903</v>
+        <v>0.1809970328538064</v>
       </c>
       <c r="L15">
-        <v>0.07740530039430382</v>
+        <v>0.1004845308909097</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04969262464800117</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07765045167598572</v>
       </c>
       <c r="O15">
-        <v>0.5578891120717913</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9502914440478492</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.633977542181213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5440371907923804</v>
+      </c>
+      <c r="R15">
+        <v>1.035511430016328</v>
+      </c>
+      <c r="S15">
+        <v>1.330293389630214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.658514450346559</v>
+        <v>2.543246434661512</v>
       </c>
       <c r="C16">
-        <v>0.6902051430591598</v>
+        <v>0.7201533368324817</v>
       </c>
       <c r="D16">
-        <v>0.07698002176201157</v>
+        <v>0.08581671528494894</v>
       </c>
       <c r="E16">
-        <v>0.04493524995685894</v>
+        <v>0.04642999536122527</v>
       </c>
       <c r="F16">
-        <v>0.6541034570159425</v>
+        <v>0.5898171465461601</v>
       </c>
       <c r="G16">
-        <v>0.0007951062669342057</v>
+        <v>0.007981225581257689</v>
       </c>
       <c r="H16">
-        <v>0.1623535027824516</v>
+        <v>0.1624192885706606</v>
       </c>
       <c r="I16">
-        <v>0.004278895709693309</v>
+        <v>0.004966648409149954</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2248302182027864</v>
+        <v>0.192112798852019</v>
       </c>
       <c r="L16">
-        <v>0.07524781201534125</v>
+        <v>0.1062119909248214</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05105965056162809</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0762834973383093</v>
       </c>
       <c r="O16">
-        <v>0.526034260148073</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9447313737549905</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.594098742639318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5205241275526404</v>
+      </c>
+      <c r="R16">
+        <v>0.9967131103894644</v>
+      </c>
+      <c r="S16">
+        <v>1.387721160642343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.56458583677346</v>
+        <v>2.469860361375652</v>
       </c>
       <c r="C17">
-        <v>0.6738491846635384</v>
+        <v>0.7152072112011183</v>
       </c>
       <c r="D17">
-        <v>0.08299959264385848</v>
+        <v>0.0906730044438504</v>
       </c>
       <c r="E17">
-        <v>0.04756226176957634</v>
+        <v>0.04946166974597865</v>
       </c>
       <c r="F17">
-        <v>0.6747292332330304</v>
+        <v>0.6215442248791589</v>
       </c>
       <c r="G17">
-        <v>0.0007961711322724829</v>
+        <v>0.002076166763457898</v>
       </c>
       <c r="H17">
-        <v>0.1243294172910367</v>
+        <v>0.1244024164514599</v>
       </c>
       <c r="I17">
-        <v>0.003892206749462446</v>
+        <v>0.004689815172423728</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2333204510700106</v>
+        <v>0.2032056788928678</v>
       </c>
       <c r="L17">
-        <v>0.06960807649310574</v>
+        <v>0.1114747151256896</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05352680590014991</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07093777333583162</v>
       </c>
       <c r="O17">
-        <v>0.537505442891792</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9245065080114045</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.631677816581202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.535514192358967</v>
+      </c>
+      <c r="R17">
+        <v>0.9613769836569475</v>
+      </c>
+      <c r="S17">
+        <v>1.461263063410684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.534288042656726</v>
+        <v>2.444040586156689</v>
       </c>
       <c r="C18">
-        <v>0.6769237481823609</v>
+        <v>0.7260330318888748</v>
       </c>
       <c r="D18">
-        <v>0.09778567269735561</v>
+        <v>0.105628471457905</v>
       </c>
       <c r="E18">
-        <v>0.05682271781194714</v>
+        <v>0.05912646384506459</v>
       </c>
       <c r="F18">
-        <v>0.7319317681457207</v>
+        <v>0.6802129844114475</v>
       </c>
       <c r="G18">
-        <v>0.0007964998524114115</v>
+        <v>0.0007357365240570068</v>
       </c>
       <c r="H18">
-        <v>0.07147226531616013</v>
+        <v>0.07155195299039718</v>
       </c>
       <c r="I18">
-        <v>0.003554685031656568</v>
+        <v>0.004340803328311438</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2494104635461944</v>
+        <v>0.2182818036692424</v>
       </c>
       <c r="L18">
-        <v>0.06795641899333904</v>
+        <v>0.1178463071328455</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05826242718327279</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06922388000286928</v>
       </c>
       <c r="O18">
-        <v>0.5891478293278425</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8901129362998859</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.745411968865199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5887599654525886</v>
+      </c>
+      <c r="R18">
+        <v>0.9199644161823812</v>
+      </c>
+      <c r="S18">
+        <v>1.580939141676737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.550478903811893</v>
+        <v>2.455173722988434</v>
       </c>
       <c r="C19">
-        <v>0.6996038207241781</v>
+        <v>0.7554880432130062</v>
       </c>
       <c r="D19">
-        <v>0.120790927535154</v>
+        <v>0.1296200595657524</v>
       </c>
       <c r="E19">
-        <v>0.07656129400448464</v>
+        <v>0.0792836264883281</v>
       </c>
       <c r="F19">
-        <v>0.8143632510605272</v>
+        <v>0.7584565566679871</v>
       </c>
       <c r="G19">
-        <v>0.0007961855391579821</v>
+        <v>0.0004636279060097337</v>
       </c>
       <c r="H19">
-        <v>0.02642173021969541</v>
+        <v>0.02652443988277753</v>
       </c>
       <c r="I19">
-        <v>0.003777117254620599</v>
+        <v>0.004579907741715239</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2695660746978845</v>
+        <v>0.2353005957537668</v>
       </c>
       <c r="L19">
-        <v>0.0809080051624349</v>
+        <v>0.1245071595410128</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06444319701837742</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08182381656525273</v>
       </c>
       <c r="O19">
-        <v>0.672476354674842</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8522728080844715</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.907529115440184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6726936589778774</v>
+      </c>
+      <c r="R19">
+        <v>0.8796604821226595</v>
+      </c>
+      <c r="S19">
+        <v>1.731782244252656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.708991018710833</v>
+        <v>2.583238246097608</v>
       </c>
       <c r="C20">
-        <v>0.769467474375034</v>
+        <v>0.8296526512106084</v>
       </c>
       <c r="D20">
-        <v>0.165456916266038</v>
+        <v>0.1781749890902802</v>
       </c>
       <c r="E20">
-        <v>0.1240889575694055</v>
+        <v>0.1277483715030847</v>
       </c>
       <c r="F20">
-        <v>0.970002034885681</v>
+        <v>0.8923834516760394</v>
       </c>
       <c r="G20">
-        <v>0.0007940641553813532</v>
+        <v>0.00239608870571395</v>
       </c>
       <c r="H20">
-        <v>0.001248060345336199</v>
+        <v>0.001360744768732047</v>
       </c>
       <c r="I20">
-        <v>0.004719175606051174</v>
+        <v>0.005391441124585228</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3032623961615961</v>
+        <v>0.2589423977840468</v>
       </c>
       <c r="L20">
-        <v>0.1322972483989489</v>
+        <v>0.1316861090687063</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07584631608778736</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1320141738686544</v>
       </c>
       <c r="O20">
-        <v>0.8425378291483696</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7990167694800547</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.215904907428666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8401360126516622</v>
+      </c>
+      <c r="R20">
+        <v>0.8329824980227372</v>
+      </c>
+      <c r="S20">
+        <v>1.976908388951585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.053586633190378</v>
+        <v>2.817293464749014</v>
       </c>
       <c r="C21">
-        <v>0.8673982999839893</v>
+        <v>0.8773480881904447</v>
       </c>
       <c r="D21">
-        <v>0.1849929795255179</v>
+        <v>0.2130022448712054</v>
       </c>
       <c r="E21">
-        <v>0.1389828367733941</v>
+        <v>0.146060537424983</v>
       </c>
       <c r="F21">
-        <v>1.053932317676285</v>
+        <v>0.8903857544464842</v>
       </c>
       <c r="G21">
-        <v>0.0007901614986590671</v>
+        <v>0.06401150338997752</v>
       </c>
       <c r="H21">
-        <v>0.002690805379056971</v>
+        <v>0.00248783158982524</v>
       </c>
       <c r="I21">
-        <v>0.006807047121228038</v>
+        <v>0.006847485487836202</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3118468639910468</v>
+        <v>0.2393296822314461</v>
       </c>
       <c r="L21">
-        <v>0.1478632544689518</v>
+        <v>0.1195150562431646</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07557663433980366</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1457035277786645</v>
       </c>
       <c r="O21">
-        <v>0.958462818634743</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7834289034412762</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.394326240885931</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9338453041571668</v>
+      </c>
+      <c r="R21">
+        <v>0.8677828117422735</v>
+      </c>
+      <c r="S21">
+        <v>1.89745048955902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.28019557298677</v>
+        <v>2.965138864673634</v>
       </c>
       <c r="C22">
-        <v>0.9269030340336428</v>
+        <v>0.8996766180452482</v>
       </c>
       <c r="D22">
-        <v>0.1954369650717638</v>
+        <v>0.2349567686031691</v>
       </c>
       <c r="E22">
-        <v>0.146085952483098</v>
+        <v>0.1558278664860175</v>
       </c>
       <c r="F22">
-        <v>1.104983647829911</v>
+        <v>0.8807589505118472</v>
       </c>
       <c r="G22">
-        <v>0.0007876989554352626</v>
+        <v>0.1534745935097774</v>
       </c>
       <c r="H22">
-        <v>0.003958329498619739</v>
+        <v>0.00344099506494322</v>
       </c>
       <c r="I22">
-        <v>0.008127284280147862</v>
+        <v>0.007569990774088708</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3174924410511508</v>
+        <v>0.2255991396621049</v>
       </c>
       <c r="L22">
-        <v>0.154894123317483</v>
+        <v>0.1118729574372104</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07483797306482742</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1515979321774523</v>
       </c>
       <c r="O22">
-        <v>1.027269098152331</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7748866841202542</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.50664710642917</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.9863347013342931</v>
+      </c>
+      <c r="R22">
+        <v>0.8974914690091111</v>
+      </c>
+      <c r="S22">
+        <v>1.829550966855209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.163428476927038</v>
+        <v>2.899933310779659</v>
       </c>
       <c r="C23">
-        <v>0.8924046216276906</v>
+        <v>0.8918567864132001</v>
       </c>
       <c r="D23">
-        <v>0.189577388533678</v>
+        <v>0.2211489725868319</v>
       </c>
       <c r="E23">
-        <v>0.1422474509365763</v>
+        <v>0.1500759711678583</v>
       </c>
       <c r="F23">
-        <v>1.07965898509751</v>
+        <v>0.8961383691546416</v>
       </c>
       <c r="G23">
-        <v>0.0007889943676718731</v>
+        <v>0.0874483649184512</v>
       </c>
       <c r="H23">
-        <v>0.003258998966711113</v>
+        <v>0.00293574212977521</v>
       </c>
       <c r="I23">
-        <v>0.007133605637467788</v>
+        <v>0.006870548794717379</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3156840133635583</v>
+        <v>0.2364493128223124</v>
       </c>
       <c r="L23">
-        <v>0.15120828180887</v>
+        <v>0.1170484035960744</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.0767679836007602</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1485593945623762</v>
       </c>
       <c r="O23">
-        <v>0.9904680407405735</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.778134553589453</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.452576694981417</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9607362730516797</v>
+      </c>
+      <c r="R23">
+        <v>0.8750547251272565</v>
+      </c>
+      <c r="S23">
+        <v>1.896011174408699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.714122878417697</v>
+        <v>2.588343612881943</v>
       </c>
       <c r="C24">
-        <v>0.7669076693501893</v>
+        <v>0.8279328601299767</v>
       </c>
       <c r="D24">
-        <v>0.1679675196873802</v>
+        <v>0.1807077861953985</v>
       </c>
       <c r="E24">
-        <v>0.1278328741373329</v>
+        <v>0.1315246074793208</v>
       </c>
       <c r="F24">
-        <v>0.982273952007418</v>
+        <v>0.9045003775485014</v>
       </c>
       <c r="G24">
-        <v>0.0007940278470684874</v>
+        <v>0.00222005395584457</v>
       </c>
       <c r="H24">
-        <v>0.001188437633576012</v>
+        <v>0.001303852394150651</v>
       </c>
       <c r="I24">
-        <v>0.004284593635631495</v>
+        <v>0.004859603574821847</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3075739056369677</v>
+        <v>0.2628118704931097</v>
       </c>
       <c r="L24">
-        <v>0.1371548263158147</v>
+        <v>0.1331921300859342</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07725269944657143</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1368265544083158</v>
       </c>
       <c r="O24">
-        <v>0.8514736474241857</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7939768763655053</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.242924795795034</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8492592504951304</v>
+      </c>
+      <c r="R24">
+        <v>0.826897201838257</v>
+      </c>
+      <c r="S24">
+        <v>2.00352294361241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.228743518235376</v>
+        <v>2.143034983409109</v>
       </c>
       <c r="C25">
-        <v>0.6327615214981108</v>
+        <v>0.6831241928401823</v>
       </c>
       <c r="D25">
-        <v>0.1448765572661301</v>
+        <v>0.1555640634077662</v>
       </c>
       <c r="E25">
-        <v>0.1123501607265496</v>
+        <v>0.1164826608079146</v>
       </c>
       <c r="F25">
-        <v>0.8806930286392145</v>
+        <v>0.8194662769537047</v>
       </c>
       <c r="G25">
-        <v>0.0007996906500193843</v>
+        <v>0.001139466341443462</v>
       </c>
       <c r="H25">
-        <v>8.145247024726743E-05</v>
+        <v>0.0001823341113336152</v>
       </c>
       <c r="I25">
-        <v>0.002181702578428535</v>
+        <v>0.002956644194393121</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3003354407249645</v>
+        <v>0.2617716145790787</v>
       </c>
       <c r="L25">
-        <v>0.121985343461418</v>
+        <v>0.1411228547858094</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06675437006132867</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1233704897739649</v>
       </c>
       <c r="O25">
-        <v>0.7019709201916697</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.813992173070595</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>2.026629199913401</v>
+        <v>0.7019497962545671</v>
+      </c>
+      <c r="R25">
+        <v>0.8260921254641431</v>
+      </c>
+      <c r="S25">
+        <v>1.834692930062886</v>
       </c>
     </row>
   </sheetData>
